--- a/capstone-models/learner-capstone-allocations.xlsx
+++ b/capstone-models/learner-capstone-allocations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zyan\Desktop\ASCBLR07JUL2025GIT-HUB\ASCBLR07JUL2025GIT-REPO\capstone-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E746F92-B18E-4FE6-844D-08C7F75A7B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6575E71B-2257-45E0-A12D-6425E89AD9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{4CC858E1-9D7C-4A8F-BFCF-E6E2E5FC5E92}"/>
   </bookViews>
@@ -150,7 +150,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +161,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCAEDFB"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -230,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -238,11 +256,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,7 +588,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection sqref="A1:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -572,20 +599,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -594,7 +621,7 @@
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -605,7 +632,7 @@
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -616,7 +643,7 @@
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -627,7 +654,7 @@
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -638,7 +665,7 @@
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -649,7 +676,7 @@
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -660,7 +687,7 @@
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -671,7 +698,7 @@
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -682,7 +709,7 @@
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -693,7 +720,7 @@
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -704,7 +731,7 @@
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -715,7 +742,7 @@
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -726,7 +753,7 @@
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -737,7 +764,7 @@
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -748,7 +775,7 @@
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -759,7 +786,7 @@
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -770,7 +797,7 @@
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -781,7 +808,7 @@
       <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="6" t="s">
         <v>25</v>
       </c>
     </row>
